--- a/public/files/stock_sample.xlsx
+++ b/public/files/stock_sample.xlsx
@@ -27,7 +27,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>serial_no</t>
+    <t>serial_number</t>
   </si>
 </sst>
 </file>
